--- a/tools/copier-template.xlsx
+++ b/tools/copier-template.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\storage\TOOLS\PBS Copier Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179E8107-08E9-49F2-9620-4F13C2BB9F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F094C0-576B-4AD1-8630-0C6048BB638F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="-120" windowWidth="27180" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="-120" windowWidth="27180" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="existing-mappings" sheetId="1" r:id="rId1"/>
     <sheet name="need-mapping" sheetId="2" r:id="rId2"/>
+    <sheet name="CODE - existing mappings" sheetId="3" r:id="rId3"/>
+    <sheet name="CODE - need mapping" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -293,6 +295,942 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>490800</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>138374</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C5FD954-938F-CD6D-DDAC-E8CB7669F99F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="523874"/>
+          <a:ext cx="36000000" cy="36000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>SELECT DISTINCT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>/*</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>Programmer: Jason Whittle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>Use:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>This Code is used for extracting all the PBS Mappings.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>It is designed to be uploaded into the</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>pbs-mapping-copier.exe tool. The tool figures out what</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>mappings can be applied to the new items and gives the</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>user an update script that applies those mappings in the</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>database. Paste the extracted data into the 'existing-mappings'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>sheet of 'copier.xlsx'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>Repo Location for this script:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>https://github.com/neoversionsix/custom-ccl-jobs/blob/57eaf7dfa68692eb34f0671eaf95346b5a5a5638/PBS/PBS%20-%20For%20Copying%20Existing%20Mappings%20-%20All%20Mappings.ccl</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>Repo Location for the associated tool:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>https://github.com/neoversionsix/pbs-existing-mapping-copier-tool/blob/148ff6917d0998f49f06d96392eb36a3632fbd19/pbs-mapping-copier.py</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>*/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>	MAPPING_KEY = CONCAT (TRIM(P_I.DRUG_NAME), " - ", TRIM(P_D.BRAND_NAME), " - ", TRIM(P_D.FORM_STRENGTH))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>	, MAPPED_SYNONYM_ID = O_C_S.SYNONYM_ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>	, SYNONYM_TYPE = UAR_GET_CODE_DISPLAY(O_C_S.MNEMONIC_TYPE_CD)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>FROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>	PBS_OCS_MAPPING   P_O_M</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>	, ORDER_CATALOG_SYNONYM   O_C_S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>	, PBS_ITEM      P_I</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>	, PBS_DRUG      P_D</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>	;, PBS_LISTING    P_L</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>PLAN P_O_M</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    WHERE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    	P_O_M.PBS_DRUG_ID != 11111111.00 ; Not Inactive Rows</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    	AND P_O_M.END_EFFECTIVE_DT_TM &gt; SYSDATE ; Is current</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>JOIN O_C_S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>	WHERE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>		O_C_S.SYNONYM_ID = P_O_M.SYNONYM_ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>		AND O_C_S.ACTIVE_IND = 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>JOIN P_D</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    WHERE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>		P_D.PBS_DRUG_ID = P_O_M.PBS_DRUG_ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>		AND P_D.END_EFFECTIVE_DT_TM &gt; SYSDATE	; CURRENT PRODUCTS ONLY</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>JOIN	P_I</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    WHERE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>		P_I.PBS_ITEM_ID = P_D.PBS_ITEM_ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    	AND	P_I.END_EFFECTIVE_DT_TM &gt; SYSDATE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>; JOIN	P_L</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>;     WHERE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>		; P_L.PBS_LISTING_ID = P_I.PBS_LISTING_ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>ORDER BY</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>	P_O_M.PBS_DRUG_ID   DESC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>WITH TIME = 20,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>	NOCOUNTER,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>	SEPARATOR=" ",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>	FORMAT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>243150</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>100274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{871CDF6F-AD75-9D39-9C39-9AAD66D3F395}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="295274"/>
+          <a:ext cx="36000000" cy="36000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>SELECT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>/*</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>Programmer: Jason Whittle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>Use:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>This Code is used for extracting all the new PBS Items from</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>the last installed package, WHICH ALSO HAVE 0 ASSOCAITED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>MAPPINGS. It is designed to be uploaded into the</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>pbs-mapping-copier.exe tool. The tool figures out what</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>mappings can be applied to the new items and gives the</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>user an update script that applies those mappings in the</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>database. Paste the extracted data into the 'need-mapping'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>sheet of 'copier.xlsx'</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>Repo Location for this script:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>https://github.com/neoversionsix/custom-ccl-jobs/blob/9cfa307dde57044f914224f39d5b27367fc0e7f7/PBS/PBS%20-%20For%20Copy%20Existing%20Mappings%20-%20Last%20Installed%20Package.ccl</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>Repo Location for the associated tool:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>https://github.com/neoversionsix/pbs-existing-mapping-copier-tool/blob/148ff6917d0998f49f06d96392eb36a3632fbd19/pbs-mapping-copier.py</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>*/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    MAPPING_KEY = CONCAT (TRIM(P_I.DRUG_NAME), " - ", TRIM(P_D.BRAND_NAME), " - ", TRIM(P_D.FORM_STRENGTH))</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    , MAP_PBS_DRUG_ID_ = P_D.PBS_DRUG_ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>	, PBS_CODE = P_L.PBS_ITEM_CODE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    ; Concatenated version of primary - brand and form used for matching mappings</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>	;, ITEM_BEG_DATE = FORMAT(P_I.BEG_EFFECTIVE_DT_TM, "DD/MMM/YYYY")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>	;, PRODUCT_BEG_DATE = FORMAT(P_D.BEG_EFFECTIVE_DT_TM, "DD/MMM/YYYY")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>FROM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>	 PBS_LISTING    P_L</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>	, PBS_ITEM      P_I</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>	, PBS_DRUG      P_D</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>PLAN P_D</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    WHERE	P_D.END_EFFECTIVE_DT_TM &gt; (SYSDATE)	; CURRENT PRODUCTS ONLY</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    ;ONLY SHOW CODES FROM THE MOST RECENT PACKAGE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    AND	P_D.BEG_EFFECTIVE_DT_TM = (SELECT MAX(BEG_EFFECTIVE_DT_TM) FROM PBS_DRUG)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    ;EXCLUDE BRAND ALTERATIONS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    AND	P_D.PBS_ITEM_ID NOT IN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>        SELECT P_D2.PBS_ITEM_ID FROM PBS_DRUG P_D2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>        WHERE  P_D.PBS_ITEM_ID = P_D2.PBS_ITEM_ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>        AND P_D2.END_EFFECTIVE_DT_TM != CNVTDATETIME("31-DEC-2100")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    /*  UNMAPPED in the PBS_OCS_MAPPING Table */</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    AND P_D.PBS_DRUG_ID NOT IN (SELECT PBS_DRUG_ID FROM PBS_OCS_MAPPING)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>JOIN	P_I</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    WHERE	P_I.PBS_ITEM_ID = P_D.PBS_ITEM_ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    AND	P_I.END_EFFECTIVE_DT_TM &gt; OUTERJOIN(SYSDATE)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    ;EXCLUDE ITEM ALTERATIONS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    AND	P_I.PBS_ITEM_ID NOT IN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>        (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>            SELECT P_I2.PBS_ITEM_ID FROM PBS_ITEM P_I2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>            WHERE  P_I.PBS_ITEM_ID = P_I2.PBS_ITEM_ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>            AND P_I2.END_EFFECTIVE_DT_TM != CNVTDATETIME("31-DEC-2100")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>        )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>JOIN	P_L</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    WHERE	P_L.PBS_LISTING_ID = P_I.PBS_LISTING_ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    ; DON'T MAP THE PRIVATE HOSPITAL CODES ETC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    AND	P_L.DRUG_TYPE_MEAN NOT IN ("DB", "HS", "IN", "PQ", "TY")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    AND P_L.PBS_ITEM_CODE  IN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>        (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>            SELECT PBS_ITEM_CODE FROM PBS_PRESCRIBER</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>            WHERE PRESCRIBER_TYPE_CD IN</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>            (</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>                SELECT CV.CODE_VALUE FROM CODE_VALUE CV</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>                WHERE CV.CODE_SET = 4386008</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>                ;DON'T MAP DENTAL AND OPTOMETRIST CODES</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>                AND CV.DISPLAY_KEY IN ("MEDICALPRACTITIONER", "NURSEPRACTITIONER", "MIDWIFE")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>            )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>            AND	END_EFFECTIVE_DT_TM = CNVTDATETIME("31-DEC-2100")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>        )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>ORDER BY</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>	  P_I.DRUG_NAME</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>	, P_D.BRAND_NAME</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>	, P_D.FORM_STRENGTH</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>    , P_L.PBS_ITEM_CODE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>WITH	TIME = 30</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -584,7 +1522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -828,7 +1766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDE9295-84D2-41C6-BD4B-0A66E2BA2671}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1066,4 +2004,30 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC4EA9E-FF68-41FC-A333-E2D7A4F0BD68}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4030D7A9-6EEF-4D84-B0E8-3E40D6ED6BF6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>